--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="27780" windowHeight="11070"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="28185" windowHeight="3000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t>-The sound is deep_growl_converted.wav @ 17 seconds.</t>
   </si>
@@ -65,6 +64,21 @@
   </si>
   <si>
     <t>match %</t>
+  </si>
+  <si>
+    <t>-these tests ran with fft correlation only</t>
+  </si>
+  <si>
+    <t>-using line in with minimum volume to trigger collection</t>
+  </si>
+  <si>
+    <t>-direct speaker connection with out using microphone and pre-amp</t>
+  </si>
+  <si>
+    <t>-comparison fft with microphone signal in soi[n]</t>
+  </si>
+  <si>
+    <t>-tests run with sounds on loop on vlc media player</t>
   </si>
 </sst>
 </file>
@@ -398,61 +412,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O139"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15"/>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -466,7 +479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -504,7 +517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>41003</v>
       </c>
@@ -530,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>41003</v>
       </c>
@@ -556,7 +569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>41003</v>
       </c>
@@ -569,8 +582,10 @@
       <c r="F15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="G15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>41003</v>
       </c>
@@ -584,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>41003</v>
       </c>
@@ -598,15 +613,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>41003</v>
       </c>
       <c r="C18">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="2">
         <v>41003</v>
       </c>
@@ -614,7 +630,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:14">
       <c r="A20" s="2">
         <v>41003</v>
       </c>
@@ -622,7 +638,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:14">
       <c r="A21" s="2">
         <v>41003</v>
       </c>
@@ -630,7 +646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:14">
       <c r="A22" s="2">
         <v>41003</v>
       </c>
@@ -638,7 +654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:14">
       <c r="A23" s="2">
         <v>41004</v>
       </c>
@@ -646,7 +662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:14">
       <c r="A24" s="2">
         <v>41004</v>
       </c>
@@ -654,121 +670,197 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15"/>
-    <row r="26" spans="1:15"/>
-    <row r="27" spans="1:15"/>
-    <row r="28" spans="1:15"/>
-    <row r="29" spans="1:15"/>
-    <row r="30" spans="1:15"/>
-    <row r="31" spans="1:15"/>
-    <row r="32" spans="1:15"/>
-    <row r="33" spans="1:1"/>
-    <row r="34" spans="1:1"/>
-    <row r="35" spans="1:1"/>
-    <row r="36" spans="1:1"/>
-    <row r="37" spans="1:1"/>
-    <row r="38" spans="1:1"/>
-    <row r="39" spans="1:1"/>
-    <row r="40" spans="1:1"/>
-    <row r="41" spans="1:1"/>
-    <row r="42" spans="1:1"/>
-    <row r="43" spans="1:1"/>
-    <row r="44" spans="1:1"/>
-    <row r="45" spans="1:1"/>
-    <row r="46" spans="1:1"/>
-    <row r="47" spans="1:1"/>
-    <row r="48" spans="1:1"/>
-    <row r="49" spans="1:1"/>
-    <row r="50" spans="1:1"/>
-    <row r="51" spans="1:1"/>
-    <row r="52" spans="1:1"/>
-    <row r="53" spans="1:1"/>
-    <row r="54" spans="1:1"/>
-    <row r="55" spans="1:1"/>
-    <row r="56" spans="1:1"/>
-    <row r="57" spans="1:1"/>
-    <row r="58" spans="1:1"/>
-    <row r="59" spans="1:1"/>
-    <row r="60" spans="1:1"/>
-    <row r="61" spans="1:1"/>
-    <row r="62" spans="1:1"/>
-    <row r="63" spans="1:1"/>
-    <row r="64" spans="1:1"/>
-    <row r="65" spans="1:1"/>
-    <row r="66" spans="1:1"/>
-    <row r="67" spans="1:1"/>
-    <row r="68" spans="1:1"/>
-    <row r="69" spans="1:1"/>
-    <row r="70" spans="1:1"/>
-    <row r="71" spans="1:1"/>
-    <row r="72" spans="1:1"/>
-    <row r="73" spans="1:1"/>
-    <row r="74" spans="1:1"/>
-    <row r="75" spans="1:1"/>
-    <row r="76" spans="1:1"/>
-    <row r="77" spans="1:1"/>
-    <row r="78" spans="1:1"/>
-    <row r="79" spans="1:1"/>
-    <row r="80" spans="1:1"/>
-    <row r="81" spans="1:1"/>
-    <row r="82" spans="1:1"/>
-    <row r="83" spans="1:1"/>
-    <row r="84" spans="1:1"/>
-    <row r="85" spans="1:1"/>
-    <row r="86" spans="1:1"/>
-    <row r="87" spans="1:1"/>
-    <row r="88" spans="1:1"/>
-    <row r="89" spans="1:1"/>
-    <row r="90" spans="1:1"/>
-    <row r="91" spans="1:1"/>
-    <row r="92" spans="1:1"/>
-    <row r="93" spans="1:1"/>
-    <row r="94" spans="1:1"/>
-    <row r="95" spans="1:1"/>
-    <row r="96" spans="1:1"/>
-    <row r="97" spans="1:1"/>
-    <row r="98" spans="1:1"/>
-    <row r="99" spans="1:1"/>
-    <row r="100" spans="1:1"/>
-    <row r="101" spans="1:1"/>
-    <row r="102" spans="1:1"/>
-    <row r="103" spans="1:1"/>
-    <row r="104" spans="1:1"/>
-    <row r="105" spans="1:1"/>
-    <row r="106" spans="1:1"/>
-    <row r="107" spans="1:1"/>
-    <row r="108" spans="1:1"/>
-    <row r="109" spans="1:1"/>
-    <row r="110" spans="1:1"/>
-    <row r="111" spans="1:1"/>
-    <row r="112" spans="1:1"/>
-    <row r="113" spans="1:1"/>
-    <row r="114" spans="1:1"/>
-    <row r="115" spans="1:1"/>
-    <row r="116" spans="1:1"/>
-    <row r="117" spans="1:1"/>
-    <row r="118" spans="1:1"/>
-    <row r="119" spans="1:1"/>
-    <row r="120" spans="1:1"/>
-    <row r="121" spans="1:1"/>
-    <row r="122" spans="1:1"/>
-    <row r="123" spans="1:1"/>
-    <row r="124" spans="1:1"/>
-    <row r="125" spans="1:1"/>
-    <row r="126" spans="1:1"/>
-    <row r="127" spans="1:1"/>
-    <row r="128" spans="1:1"/>
-    <row r="129" spans="1:1"/>
-    <row r="130" spans="1:1"/>
-    <row r="131" spans="1:1"/>
-    <row r="132" spans="1:1"/>
-    <row r="133" spans="1:1"/>
-    <row r="134" spans="1:1"/>
-    <row r="135" spans="1:1"/>
-    <row r="136" spans="1:1"/>
-    <row r="137" spans="1:1"/>
-    <row r="138" spans="1:1"/>
-    <row r="139" spans="1:1"/>
+    <row r="25" spans="1:14">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C30">
+        <v>88</v>
+      </c>
+      <c r="D30" s="2">
+        <v>41005</v>
+      </c>
+      <c r="F30">
+        <v>37</v>
+      </c>
+      <c r="G30" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I30">
+        <v>34</v>
+      </c>
+      <c r="J30" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L30">
+        <v>11</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C31">
+        <v>79</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="N31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C32">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="N32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C33">
+        <v>89</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="N33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C34">
+        <v>91</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C35">
+        <v>56</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C36">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C38">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C40">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>-The sound is deep_growl_converted.wav @ 17 seconds.</t>
   </si>
@@ -69,16 +69,22 @@
     <t>-these tests ran with fft correlation only</t>
   </si>
   <si>
-    <t>-using line in with minimum volume to trigger collection</t>
-  </si>
-  <si>
     <t>-direct speaker connection with out using microphone and pre-amp</t>
   </si>
   <si>
     <t>-comparison fft with microphone signal in soi[n]</t>
   </si>
   <si>
-    <t>-tests run with sounds on loop on vlc media player</t>
+    <t>-using line in with minimum volume to trigger collection, 3 dB gain on line input</t>
+  </si>
+  <si>
+    <t>-using new reset algorithm to avoid stopping and starting dsk</t>
+  </si>
+  <si>
+    <t>-tests run with sounds on loop on vlc media player--pseudo random</t>
+  </si>
+  <si>
+    <t>-set decision at 55 and you're wrong 16% of the time</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,7 +763,7 @@
         <v>11</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -768,10 +774,23 @@
         <v>79</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="F31">
+        <v>53</v>
+      </c>
+      <c r="G31" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
       <c r="N31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -782,10 +801,23 @@
         <v>68</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="F32">
+        <v>58</v>
+      </c>
+      <c r="G32" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I32">
+        <v>29</v>
+      </c>
+      <c r="J32" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L32">
+        <v>13</v>
+      </c>
       <c r="N32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -796,8 +828,23 @@
         <v>89</v>
       </c>
       <c r="D33" s="2"/>
+      <c r="F33">
+        <v>58</v>
+      </c>
+      <c r="G33" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I33">
+        <v>11</v>
+      </c>
+      <c r="J33" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L33">
+        <v>13</v>
+      </c>
       <c r="N33" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -808,6 +855,24 @@
         <v>91</v>
       </c>
       <c r="D34" s="2"/>
+      <c r="F34">
+        <v>59</v>
+      </c>
+      <c r="G34" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L34">
+        <v>14</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2">
@@ -817,6 +882,21 @@
         <v>56</v>
       </c>
       <c r="D35" s="2"/>
+      <c r="F35">
+        <v>52</v>
+      </c>
+      <c r="G35" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I35">
+        <v>38</v>
+      </c>
+      <c r="J35" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2">
@@ -825,6 +905,21 @@
       <c r="C36">
         <v>67</v>
       </c>
+      <c r="F36">
+        <v>58</v>
+      </c>
+      <c r="G36" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I36">
+        <v>40</v>
+      </c>
+      <c r="J36" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L36">
+        <v>15</v>
+      </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2">
@@ -833,6 +928,21 @@
       <c r="C37">
         <v>45</v>
       </c>
+      <c r="F37">
+        <v>59</v>
+      </c>
+      <c r="G37" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I37">
+        <v>24</v>
+      </c>
+      <c r="J37" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L37">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2">
@@ -841,6 +951,21 @@
       <c r="C38">
         <v>79</v>
       </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="J38" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L38">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2">
@@ -849,6 +974,21 @@
       <c r="C39">
         <v>50</v>
       </c>
+      <c r="F39">
+        <v>32</v>
+      </c>
+      <c r="G39" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I39">
+        <v>39</v>
+      </c>
+      <c r="J39" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2">
@@ -857,9 +997,206 @@
       <c r="C40">
         <v>89</v>
       </c>
+      <c r="F40">
+        <v>27</v>
+      </c>
+      <c r="G40" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2">
+        <v>41005</v>
+      </c>
+      <c r="C41">
+        <v>62</v>
+      </c>
+      <c r="F41">
+        <v>60</v>
+      </c>
+      <c r="G41" s="2">
+        <v>41005</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41" s="2">
+        <v>41005</v>
+      </c>
+      <c r="L41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="C42">
+        <f>AVERAGE(C31:C41)</f>
+        <v>70.454545454545453</v>
+      </c>
+      <c r="F42">
+        <f>AVERAGE(F31:F41)</f>
+        <v>51.454545454545453</v>
+      </c>
+      <c r="I42">
+        <f>AVERAGE(I31:I41)</f>
+        <v>21.272727272727273</v>
+      </c>
+      <c r="L42">
+        <f>AVERAGE(L31:L41)</f>
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="C43">
+        <f>STDEV(C30:C41)</f>
+        <v>16.245045864863386</v>
+      </c>
+      <c r="F43">
+        <f>STDEV(F30:F41)</f>
+        <v>11.631657428993279</v>
+      </c>
+      <c r="I43">
+        <f>STDEV(I30:I41)</f>
+        <v>12.970829743791423</v>
+      </c>
+      <c r="L43">
+        <f>STDEV(L30:L41)</f>
+        <v>2.9682665076785213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="C44" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="C62" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>-The sound is deep_growl_converted.wav @ 17 seconds.</t>
   </si>
@@ -85,14 +85,90 @@
   </si>
   <si>
     <t>-set decision at 55 and you're wrong 16% of the time</t>
+  </si>
+  <si>
+    <t>test number</t>
+  </si>
+  <si>
+    <t>signal of interest</t>
+  </si>
+  <si>
+    <t>test signal 1</t>
+  </si>
+  <si>
+    <t>test signal 2</t>
+  </si>
+  <si>
+    <t>test signal 3</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Maximum Correlation Coefficient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,17 +196,126 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N45:AB49" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="N45:AB49"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="test number"/>
+    <tableColumn id="2" name="1" dataDxfId="15"/>
+    <tableColumn id="3" name="2" dataDxfId="14"/>
+    <tableColumn id="4" name="3" dataDxfId="13"/>
+    <tableColumn id="5" name="4" dataDxfId="12"/>
+    <tableColumn id="6" name="5" dataDxfId="11"/>
+    <tableColumn id="7" name="6" dataDxfId="10"/>
+    <tableColumn id="8" name="7" dataDxfId="9"/>
+    <tableColumn id="9" name="8" dataDxfId="8"/>
+    <tableColumn id="10" name="9" dataDxfId="7"/>
+    <tableColumn id="11" name="10" dataDxfId="6"/>
+    <tableColumn id="12" name="11" dataDxfId="5"/>
+    <tableColumn id="13" name="12" dataDxfId="4"/>
+    <tableColumn id="14" name="m" dataDxfId="3">
+      <calculatedColumnFormula>AVERAGE(O46:Z46)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="s" dataDxfId="2">
+      <calculatedColumnFormula>SQRT(VAR(O46:Z46))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,13 +603,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="H27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB51" sqref="AB51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -820,7 +1008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:28">
       <c r="A33" s="2">
         <v>41005</v>
       </c>
@@ -847,7 +1035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:28">
       <c r="A34" s="2">
         <v>41005</v>
       </c>
@@ -874,7 +1062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:28">
       <c r="A35" s="2">
         <v>41005</v>
       </c>
@@ -898,7 +1086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:28">
       <c r="A36" s="2">
         <v>41005</v>
       </c>
@@ -921,7 +1109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:28">
       <c r="A37" s="2">
         <v>41005</v>
       </c>
@@ -944,7 +1132,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:28">
       <c r="A38" s="2">
         <v>41005</v>
       </c>
@@ -967,7 +1155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:28">
       <c r="A39" s="2">
         <v>41005</v>
       </c>
@@ -990,7 +1178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:28">
       <c r="A40" s="2">
         <v>41005</v>
       </c>
@@ -1013,7 +1201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:28">
       <c r="A41" s="2">
         <v>41005</v>
       </c>
@@ -1036,7 +1224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:28">
       <c r="C42">
         <f>AVERAGE(C31:C41)</f>
         <v>70.454545454545453</v>
@@ -1054,7 +1242,7 @@
         <v>13.636363636363637</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:28">
       <c r="C43">
         <f>STDEV(C30:C41)</f>
         <v>16.245045864863386</v>
@@ -1072,12 +1260,76 @@
         <v>2.9682665076785213</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:28">
       <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="N44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="N45" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1090,8 +1342,55 @@
       <c r="J46" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="N46" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="3">
+        <v>88</v>
+      </c>
+      <c r="P46" s="3">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>68</v>
+      </c>
+      <c r="R46" s="3">
+        <v>89</v>
+      </c>
+      <c r="S46" s="3">
+        <v>91</v>
+      </c>
+      <c r="T46" s="3">
+        <v>56</v>
+      </c>
+      <c r="U46" s="3">
+        <v>67</v>
+      </c>
+      <c r="V46" s="3">
+        <v>45</v>
+      </c>
+      <c r="W46" s="3">
+        <v>79</v>
+      </c>
+      <c r="X46" s="3">
+        <v>50</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>89</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>62</v>
+      </c>
+      <c r="AA46" s="5">
+        <f>AVERAGE(O46:Z46)</f>
+        <v>71.916666666666671</v>
+      </c>
+      <c r="AB46" s="5">
+        <f>SQRT(VAR(O46:Z46))</f>
+        <v>16.245045864863386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1128,78 +1427,226 @@
       <c r="L47" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="3">
+        <v>37</v>
+      </c>
+      <c r="P47" s="3">
+        <v>53</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>58</v>
+      </c>
+      <c r="R47" s="3">
+        <v>58</v>
+      </c>
+      <c r="S47" s="3">
+        <v>59</v>
+      </c>
+      <c r="T47" s="3">
+        <v>52</v>
+      </c>
+      <c r="U47" s="3">
+        <v>58</v>
+      </c>
+      <c r="V47" s="3">
+        <v>59</v>
+      </c>
+      <c r="W47" s="3">
+        <v>50</v>
+      </c>
+      <c r="X47" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>27</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA47" s="5">
+        <f>AVERAGE(O47:Z47)</f>
+        <v>50.25</v>
+      </c>
+      <c r="AB47" s="5">
+        <f t="shared" ref="AB47:AB49" si="0">SQRT(VAR(O47:Z47))</f>
+        <v>11.631657428993279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="2"/>
       <c r="D48" s="2"/>
       <c r="G48" s="2"/>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="N48" t="s">
+        <v>26</v>
+      </c>
+      <c r="O48" s="3">
+        <v>34</v>
+      </c>
+      <c r="P48" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>29</v>
+      </c>
+      <c r="R48" s="3">
+        <v>11</v>
+      </c>
+      <c r="S48" s="3">
+        <v>12</v>
+      </c>
+      <c r="T48" s="3">
+        <v>38</v>
+      </c>
+      <c r="U48" s="3">
+        <v>40</v>
+      </c>
+      <c r="V48" s="3">
+        <v>24</v>
+      </c>
+      <c r="W48" s="3">
+        <v>12</v>
+      </c>
+      <c r="X48" s="3">
+        <v>39</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA48" s="5">
+        <f>AVERAGE(O48:Z48)</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="AB48" s="5">
+        <f t="shared" si="0"/>
+        <v>12.970829743791423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="2"/>
       <c r="D49" s="2"/>
       <c r="G49" s="2"/>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="N49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" s="3">
+        <v>11</v>
+      </c>
+      <c r="P49" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>13</v>
+      </c>
+      <c r="R49" s="3">
+        <v>13</v>
+      </c>
+      <c r="S49" s="3">
+        <v>14</v>
+      </c>
+      <c r="T49" s="3">
+        <v>16</v>
+      </c>
+      <c r="U49" s="3">
+        <v>15</v>
+      </c>
+      <c r="V49" s="3">
+        <v>17</v>
+      </c>
+      <c r="W49" s="3">
+        <v>18</v>
+      </c>
+      <c r="X49" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA49" s="5">
+        <f>AVERAGE(O49:Z49)</f>
+        <v>13.416666666666666</v>
+      </c>
+      <c r="AB49" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9682665076785213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="2"/>
       <c r="D50" s="2"/>
       <c r="G50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:28">
       <c r="A51" s="2"/>
       <c r="D51" s="2"/>
       <c r="G51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:28">
       <c r="A52" s="2"/>
       <c r="D52" s="2"/>
       <c r="G52" s="2"/>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:28">
       <c r="A53" s="2"/>
       <c r="D53" s="2"/>
       <c r="G53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:28">
       <c r="A54" s="2"/>
       <c r="G54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:28">
       <c r="A55" s="2"/>
       <c r="G55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:28">
       <c r="A56" s="2"/>
       <c r="G56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:28">
       <c r="A57" s="2"/>
       <c r="G57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:28">
       <c r="A58" s="2"/>
       <c r="G58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:28">
       <c r="A59" s="2"/>
       <c r="G59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:28">
       <c r="C62" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N44:AB44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/docs/results.xlsx
+++ b/docs/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="28185" windowHeight="3000"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="20520" windowHeight="3000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>staticd</author>
+  </authors>
+  <commentList>
+    <comment ref="D48" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>staticd:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+some directions showed from the left
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>-The sound is deep_growl_converted.wav @ 17 seconds.</t>
   </si>
@@ -145,13 +180,40 @@
   </si>
   <si>
     <t>Maximum Correlation Coefficient</t>
+  </si>
+  <si>
+    <t>-used for poster</t>
+  </si>
+  <si>
+    <t>-using line in with minimum volume to trigger colleciton</t>
+  </si>
+  <si>
+    <t>-over the air into microphones for sound source</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
+  </si>
+  <si>
+    <t>-notice the difference in average values for the deep_growl</t>
+  </si>
+  <si>
+    <t>--this is because we attempted to start the loud part of the audio during a quiet time in the sound file</t>
+  </si>
+  <si>
+    <t>--this resulted in non-desired results and is indicative of a necessary need to either record for longer</t>
+  </si>
+  <si>
+    <t>or use another processing technique of only recording when there is energy in our band of interest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +237,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -212,35 +287,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -285,33 +349,54 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N45:AB49" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="N45:AB49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="N2:AB7" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="N2:AB7"/>
   <tableColumns count="15">
     <tableColumn id="1" name="test number"/>
-    <tableColumn id="2" name="1" dataDxfId="15"/>
-    <tableColumn id="3" name="2" dataDxfId="14"/>
-    <tableColumn id="4" name="3" dataDxfId="13"/>
-    <tableColumn id="5" name="4" dataDxfId="12"/>
-    <tableColumn id="6" name="5" dataDxfId="11"/>
-    <tableColumn id="7" name="6" dataDxfId="10"/>
-    <tableColumn id="8" name="7" dataDxfId="9"/>
-    <tableColumn id="9" name="8" dataDxfId="8"/>
-    <tableColumn id="10" name="9" dataDxfId="7"/>
-    <tableColumn id="11" name="10" dataDxfId="6"/>
-    <tableColumn id="12" name="11" dataDxfId="5"/>
-    <tableColumn id="13" name="12" dataDxfId="4"/>
-    <tableColumn id="14" name="m" dataDxfId="3">
-      <calculatedColumnFormula>AVERAGE(O46:Z46)</calculatedColumnFormula>
+    <tableColumn id="2" name="1" dataDxfId="13"/>
+    <tableColumn id="3" name="2" dataDxfId="12"/>
+    <tableColumn id="4" name="3" dataDxfId="11"/>
+    <tableColumn id="5" name="4" dataDxfId="10"/>
+    <tableColumn id="6" name="5" dataDxfId="9"/>
+    <tableColumn id="7" name="6" dataDxfId="8"/>
+    <tableColumn id="8" name="7" dataDxfId="7"/>
+    <tableColumn id="9" name="8" dataDxfId="6"/>
+    <tableColumn id="10" name="9" dataDxfId="5"/>
+    <tableColumn id="11" name="10" dataDxfId="4"/>
+    <tableColumn id="12" name="11" dataDxfId="3"/>
+    <tableColumn id="13" name="12" dataDxfId="2"/>
+    <tableColumn id="14" name="m" dataDxfId="1">
+      <calculatedColumnFormula>AVERAGE(O3:Z3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="s" dataDxfId="2">
-      <calculatedColumnFormula>SQRT(VAR(O46:Z46))</calculatedColumnFormula>
+    <tableColumn id="15" name="s" dataDxfId="0">
+      <calculatedColumnFormula>SQRT(VAR(O3:Z3))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -603,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB51" sqref="AB51"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -614,52 +699,432 @@
     <col min="14" max="14" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="3">
+        <v>88</v>
+      </c>
+      <c r="P3" s="3">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>68</v>
+      </c>
+      <c r="R3" s="3">
+        <v>89</v>
+      </c>
+      <c r="S3" s="3">
+        <v>91</v>
+      </c>
+      <c r="T3" s="3">
+        <v>56</v>
+      </c>
+      <c r="U3" s="3">
+        <v>67</v>
+      </c>
+      <c r="V3" s="3">
+        <v>45</v>
+      </c>
+      <c r="W3" s="3">
+        <v>79</v>
+      </c>
+      <c r="X3" s="3">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>89</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="5">
+        <f>AVERAGE(O3:Z3)</f>
+        <v>71.916666666666671</v>
+      </c>
+      <c r="AB3" s="5">
+        <f>SQRT(VAR(O3:Z3))</f>
+        <v>16.245045864863386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3">
+        <v>37</v>
+      </c>
+      <c r="P4" s="3">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>58</v>
+      </c>
+      <c r="R4" s="3">
+        <v>58</v>
+      </c>
+      <c r="S4" s="3">
+        <v>59</v>
+      </c>
+      <c r="T4" s="3">
+        <v>52</v>
+      </c>
+      <c r="U4" s="3">
+        <v>58</v>
+      </c>
+      <c r="V4" s="3">
+        <v>59</v>
+      </c>
+      <c r="W4" s="3">
+        <v>50</v>
+      </c>
+      <c r="X4" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>60</v>
+      </c>
+      <c r="AA4" s="5">
+        <f>AVERAGE(O4:Z4)</f>
+        <v>50.25</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" ref="AB4:AB6" si="0">SQRT(VAR(O4:Z4))</f>
+        <v>11.631657428993279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="3">
+        <v>34</v>
+      </c>
+      <c r="P5" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>29</v>
+      </c>
+      <c r="R5" s="3">
+        <v>11</v>
+      </c>
+      <c r="S5" s="3">
+        <v>12</v>
+      </c>
+      <c r="T5" s="3">
+        <v>38</v>
+      </c>
+      <c r="U5" s="3">
+        <v>40</v>
+      </c>
+      <c r="V5" s="3">
+        <v>24</v>
+      </c>
+      <c r="W5" s="3">
+        <v>12</v>
+      </c>
+      <c r="X5" s="3">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="5">
+        <f>AVERAGE(O5:Z5)</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="0"/>
+        <v>12.970829743791423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="3">
+        <v>11</v>
+      </c>
+      <c r="P6" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>13</v>
+      </c>
+      <c r="R6" s="3">
+        <v>13</v>
+      </c>
+      <c r="S6" s="3">
+        <v>14</v>
+      </c>
+      <c r="T6" s="3">
+        <v>16</v>
+      </c>
+      <c r="U6" s="3">
+        <v>15</v>
+      </c>
+      <c r="V6" s="3">
+        <v>17</v>
+      </c>
+      <c r="W6" s="3">
+        <v>18</v>
+      </c>
+      <c r="X6" s="3">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="5">
+        <f>AVERAGE(O6:Z6)</f>
+        <v>13.416666666666666</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="0"/>
+        <v>2.9682665076785213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="9" t="e">
+        <f>AVERAGE(O7:Z7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB7" s="9" t="e">
+        <f>SQRT(VAR(O7:Z7))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -673,7 +1138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -710,8 +1175,11 @@
       <c r="L12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="N12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="2">
         <v>41003</v>
       </c>
@@ -736,8 +1204,11 @@
       <c r="L13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="N13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="2">
         <v>41003</v>
       </c>
@@ -762,8 +1233,11 @@
       <c r="L14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="N14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="2">
         <v>41003</v>
       </c>
@@ -778,8 +1252,11 @@
       </c>
       <c r="G15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="N15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="2">
         <v>41003</v>
       </c>
@@ -791,6 +1268,9 @@
       </c>
       <c r="F16">
         <v>3</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -806,6 +1286,9 @@
       <c r="F17">
         <v>3</v>
       </c>
+      <c r="N17" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2">
@@ -815,6 +1298,9 @@
         <v>92</v>
       </c>
       <c r="D18" s="2"/>
+      <c r="N18" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2">
@@ -823,6 +1309,9 @@
       <c r="C19">
         <v>91</v>
       </c>
+      <c r="N19" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2">
@@ -1008,7 +1497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>41005</v>
       </c>
@@ -1035,7 +1524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>41005</v>
       </c>
@@ -1062,7 +1551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>41005</v>
       </c>
@@ -1086,7 +1575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>41005</v>
       </c>
@@ -1109,7 +1598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>41005</v>
       </c>
@@ -1132,7 +1621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>41005</v>
       </c>
@@ -1155,7 +1644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>41005</v>
       </c>
@@ -1178,7 +1667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>41005</v>
       </c>
@@ -1201,7 +1690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:28">
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>41005</v>
       </c>
@@ -1224,10 +1713,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:28">
+    <row r="42" spans="1:14">
       <c r="C42">
-        <f>AVERAGE(C31:C41)</f>
-        <v>70.454545454545453</v>
+        <f>AVERAGE(C30:C41)</f>
+        <v>71.916666666666671</v>
       </c>
       <c r="F42">
         <f>AVERAGE(F31:F41)</f>
@@ -1242,7 +1731,7 @@
         <v>13.636363636363637</v>
       </c>
     </row>
-    <row r="43" spans="1:28">
+    <row r="43" spans="1:14">
       <c r="C43">
         <f>STDEV(C30:C41)</f>
         <v>16.245045864863386</v>
@@ -1260,76 +1749,12 @@
         <v>2.9682665076785213</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:14">
       <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N44" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-    </row>
-    <row r="45" spans="1:28">
-      <c r="N45" t="s">
-        <v>23</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="U45" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V45" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="W45" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="X45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y45" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA45" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB45" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1342,55 +1767,8 @@
       <c r="J46" t="s">
         <v>12</v>
       </c>
-      <c r="N46" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" s="3">
-        <v>88</v>
-      </c>
-      <c r="P46" s="3">
-        <v>79</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>68</v>
-      </c>
-      <c r="R46" s="3">
-        <v>89</v>
-      </c>
-      <c r="S46" s="3">
-        <v>91</v>
-      </c>
-      <c r="T46" s="3">
-        <v>56</v>
-      </c>
-      <c r="U46" s="3">
-        <v>67</v>
-      </c>
-      <c r="V46" s="3">
-        <v>45</v>
-      </c>
-      <c r="W46" s="3">
-        <v>79</v>
-      </c>
-      <c r="X46" s="3">
-        <v>50</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>89</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>62</v>
-      </c>
-      <c r="AA46" s="5">
-        <f>AVERAGE(O46:Z46)</f>
-        <v>71.916666666666671</v>
-      </c>
-      <c r="AB46" s="5">
-        <f>SQRT(VAR(O46:Z46))</f>
-        <v>16.245045864863386</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28">
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1427,225 +1805,279 @@
       <c r="L47" t="s">
         <v>15</v>
       </c>
-      <c r="N47" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" s="3">
-        <v>37</v>
-      </c>
-      <c r="P47" s="3">
-        <v>53</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>58</v>
-      </c>
-      <c r="R47" s="3">
-        <v>58</v>
-      </c>
-      <c r="S47" s="3">
-        <v>59</v>
-      </c>
-      <c r="T47" s="3">
-        <v>52</v>
-      </c>
-      <c r="U47" s="3">
-        <v>58</v>
-      </c>
-      <c r="V47" s="3">
-        <v>59</v>
-      </c>
-      <c r="W47" s="3">
+      <c r="N47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="2">
+        <v>41014</v>
+      </c>
+      <c r="B48">
+        <v>55</v>
+      </c>
+      <c r="D48" s="2">
+        <v>41014</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48" s="2">
+        <v>41014</v>
+      </c>
+      <c r="I48">
+        <v>24</v>
+      </c>
+      <c r="J48" s="2">
+        <v>41014</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="2"/>
+      <c r="B49">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="F49">
+        <v>48</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="I49">
+        <v>21</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="L49">
+        <v>26</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="2"/>
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="F50">
+        <v>34</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="I50">
+        <v>24</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="2"/>
+      <c r="B51">
+        <v>22</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="F51">
+        <v>31</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="I51">
+        <v>24</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="2"/>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="F52">
+        <v>54</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="I52">
+        <v>27</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="L52">
+        <v>26</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="X47" s="3">
-        <v>32</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>27</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>60</v>
-      </c>
-      <c r="AA47" s="5">
-        <f>AVERAGE(O47:Z47)</f>
-        <v>50.25</v>
-      </c>
-      <c r="AB47" s="5">
-        <f t="shared" ref="AB47:AB49" si="0">SQRT(VAR(O47:Z47))</f>
-        <v>11.631657428993279</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="N48" t="s">
-        <v>26</v>
-      </c>
-      <c r="O48" s="3">
-        <v>34</v>
-      </c>
-      <c r="P48" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>29</v>
-      </c>
-      <c r="R48" s="3">
-        <v>11</v>
-      </c>
-      <c r="S48" s="3">
-        <v>12</v>
-      </c>
-      <c r="T48" s="3">
-        <v>38</v>
-      </c>
-      <c r="U48" s="3">
-        <v>40</v>
-      </c>
-      <c r="V48" s="3">
-        <v>24</v>
-      </c>
-      <c r="W48" s="3">
-        <v>12</v>
-      </c>
-      <c r="X48" s="3">
-        <v>39</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>12</v>
-      </c>
-      <c r="AA48" s="5">
-        <f>AVERAGE(O48:Z48)</f>
-        <v>22.333333333333332</v>
-      </c>
-      <c r="AB48" s="5">
-        <f t="shared" si="0"/>
-        <v>12.970829743791423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="N49" t="s">
-        <v>27</v>
-      </c>
-      <c r="O49" s="3">
-        <v>11</v>
-      </c>
-      <c r="P49" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>13</v>
-      </c>
-      <c r="R49" s="3">
-        <v>13</v>
-      </c>
-      <c r="S49" s="3">
-        <v>14</v>
-      </c>
-      <c r="T49" s="3">
-        <v>16</v>
-      </c>
-      <c r="U49" s="3">
-        <v>15</v>
-      </c>
-      <c r="V49" s="3">
-        <v>17</v>
-      </c>
-      <c r="W49" s="3">
-        <v>18</v>
-      </c>
-      <c r="X49" s="3">
-        <v>9</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>15</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>11</v>
-      </c>
-      <c r="AA49" s="5">
-        <f>AVERAGE(O49:Z49)</f>
-        <v>13.416666666666666</v>
-      </c>
-      <c r="AB49" s="5">
-        <f t="shared" si="0"/>
-        <v>2.9682665076785213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28">
-      <c r="A50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:28">
-      <c r="A52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:28">
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="2"/>
+      <c r="B53">
+        <v>28</v>
+      </c>
       <c r="D53" s="2"/>
+      <c r="F53">
+        <v>33</v>
+      </c>
       <c r="G53" s="2"/>
       <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="N53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="2"/>
+      <c r="B54">
+        <v>28</v>
+      </c>
       <c r="G54" s="2"/>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:14">
       <c r="A55" s="2"/>
+      <c r="B55">
+        <v>31</v>
+      </c>
       <c r="G55" s="2"/>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:14">
       <c r="A56" s="2"/>
+      <c r="B56">
+        <v>41</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:14">
       <c r="A57" s="2"/>
+      <c r="B57">
+        <v>79</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:14">
       <c r="A58" s="2"/>
+      <c r="B58">
+        <v>62</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:28">
+    <row r="59" spans="1:14">
       <c r="A59" s="2"/>
+      <c r="B59">
+        <v>75</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="62" spans="1:28">
+    <row r="60" spans="1:14">
+      <c r="B60">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="B62">
+        <v>76</v>
+      </c>
       <c r="C62" s="1"/>
     </row>
+    <row r="63" spans="1:14">
+      <c r="B63">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="B64">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68">
+        <f>AVERAGE(B48:B67)</f>
+        <v>53.35</v>
+      </c>
+      <c r="F68">
+        <f>AVERAGE(F48:F53)</f>
+        <v>38.333333333333336</v>
+      </c>
+      <c r="I68">
+        <f>AVERAGE(I48:I52)</f>
+        <v>24</v>
+      </c>
+      <c r="L68">
+        <f>AVERAGE(L48:L52)</f>
+        <v>20.2</v>
+      </c>
+      <c r="M68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69">
+        <f>STDEV(B48:B67)</f>
+        <v>26.679925431916629</v>
+      </c>
+      <c r="F69">
+        <f>STDEV(F48:F53)</f>
+        <v>10.092901796146974</v>
+      </c>
+      <c r="I69">
+        <f>STDEV(I48:I52)</f>
+        <v>2.1213203435596424</v>
+      </c>
+      <c r="L69">
+        <f>STDEV(L48:L52)</f>
+        <v>6.0166435825965285</v>
+      </c>
+      <c r="M69" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="N44:AB44"/>
+  <mergeCells count="2">
+    <mergeCell ref="N1:AB1"/>
+    <mergeCell ref="A1:M10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
